--- a/静的コード検証(SonarQube).xlsx
+++ b/静的コード検証(SonarQube).xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_Disabled\案件\ANA\ツール調査\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\git\fileManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6093A9-DE52-46CB-92B5-C9FCE6E6DE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22605" windowHeight="10245"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="6" r:id="rId1"/>
     <sheet name="全体の流れ" sheetId="4" r:id="rId2"/>
-    <sheet name="検証環境" sheetId="1" r:id="rId3"/>
+    <sheet name="SonarQube Server 検証環境" sheetId="1" r:id="rId3"/>
     <sheet name="事前準備" sheetId="2" r:id="rId4"/>
     <sheet name="インストール" sheetId="3" r:id="rId5"/>
-    <sheet name="Gradleコマンド" sheetId="5" r:id="rId6"/>
+    <sheet name="Github Actions連携" sheetId="8" r:id="rId6"/>
+    <sheet name="Github Actions連携に必要なファイル" sheetId="9" r:id="rId7"/>
+    <sheet name="Gradleコマンド" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,20 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="175">
-  <si>
-    <t>Sonarqube環境作成手順</t>
-    <rPh sb="9" eb="11">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="257">
   <si>
     <t>使用する環境</t>
     <rPh sb="0" eb="2">
@@ -955,19 +945,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Gradleコマンド実行時の流れ</t>
-    <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コマンド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1101,6 +1078,322 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SonarQube Server 検証環境</t>
+    <rPh sb="17" eb="19">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・EC2インスタンス:t2.medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバのインバウンドルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・port:9000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GithubのIPアドレス(以下のURLの"api"の部分)</t>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://api.github.com/meta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Github Actions連携</t>
+  </si>
+  <si>
+    <t>・IDE:Eclipse version 2020-03 (4.15.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Framework:Spring-boot(2.2.6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ビルド:Gradle(Buildship 3.x)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SonarQube Scanner(2.7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・言語:java-11-openjdk</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>analyze-sonarqube.sh</t>
+  </si>
+  <si>
+    <t>build.yml</t>
+  </si>
+  <si>
+    <t>build.yml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SonarQube Scannerのコンテナインストール用シェル</t>
+    <rPh sb="28" eb="29">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SonarQube Scannerで静的コード検証用ファイル</t>
+    <rPh sb="18" eb="20">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Github Actions連携に必要なファイル</t>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.github/workflows</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>analyze-sonarqube.sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#!/bin/bash</t>
+  </si>
+  <si>
+    <t>#################################################</t>
+  </si>
+  <si>
+    <t># based on https://github.com/Sagacify/ci-tools</t>
+  </si>
+  <si>
+    <t>SONAR_VERSION="sonar-scanner-cli-4.2.0.1873"</t>
+  </si>
+  <si>
+    <t>SONAR_DIR="sonar-scanner-4.2.0.1873"</t>
+  </si>
+  <si>
+    <t>wget -P $HOME -N "https://binaries.sonarsource.com/Distribution/sonar-scanner-cli/${SONAR_VERSION}.zip"</t>
+  </si>
+  <si>
+    <t>unzip -d $HOME $HOME/$SONAR_VERSION.zip</t>
+  </si>
+  <si>
+    <t>DEFAULT_SONAR_PARAMS="-Dsonar.login=$SONAR_TOKEN \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      -Dsonar.projectName=$CIRCLE_PROJECT_REPONAME \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      -Dsonar.projectVersion=$CIRCLE_BUILD_NUM"</t>
+  </si>
+  <si>
+    <t>if [ -n "$CI_PULL_REQUEST" ]; then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if [ "$CIRCLE_BRANCH" != "staging" ] &amp; [ "$STAGING_EXISTS" ]; then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SONAR_PROJECT_KEY=$CIRCLE_PROJECT_USERNAME:$CIRCLE_PROJECT_REPONAME:staging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SONAR_PROJECT_KEY=$CIRCLE_PROJECT_USERNAME:$CIRCLE_PROJECT_REPONAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  echo "Preview analyzing ${CI_PULL_REQUEST} by SonarQube Github Plugin"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $HOME/$SONAR_DIR/bin/sonar-scanner $DEFAULT_SONAR_PARAMS \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Dsonar.projectKey=$SONAR_PROJECT_KEY \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Dsonar.github.repository=$CIRCLE_PROJECT_USERNAME/$CIRCLE_PROJECT_REPONAME \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Dsonar.github.pullRequest=${CI_PULL_REQUEST##*/} \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Dsonar.github.oauth=$GITHUB_TOKEN \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Dsonar.github.endpoint="https://git.your.domain/api/v3" \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Dsonar.analysis.mode=preview;</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>if [ "$CIRCLE_BRANCH" == "master" ]; then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    echo "Analyzing ${CIRCLE_BRANCH} branch to push issues to SonarQube server"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $HOME/$SONAR_DIR/bin/sonar-scanner $DEFAULT_SONAR_PARAMS \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Dsonar.projectKey=$CIRCLE_PROJECT_USERNAME:$CIRCLE_PROJECT_REPONAME;</t>
+  </si>
+  <si>
+    <t>elif [ "$CIRCLE_BRANCH" == "staging" ]; then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Dsonar.projectKey=$CIRCLE_PROJECT_USERNAME:$CIRCLE_PROJECT_REPONAME:staging;</t>
+  </si>
+  <si>
+    <t># This is a basic workflow to help you get started with Actions</t>
+  </si>
+  <si>
+    <t>name: CI</t>
+  </si>
+  <si>
+    <t># Controls when the action will run. Triggers the workflow on push or pull request</t>
+  </si>
+  <si>
+    <t># events but only for the master branch</t>
+  </si>
+  <si>
+    <t>on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  push:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    branches: [ master ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pull_request:</t>
+  </si>
+  <si>
+    <t># A workflow run is made up of one or more jobs that can run sequentially or in parallel</t>
+  </si>
+  <si>
+    <t>jobs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # This workflow contains a single job called "build"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  build:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # The type of runner that the job will run on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    runs-on: ubuntu-latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Steps represent a sequence of tasks that will be executed as part of the job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    steps:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Checks-out your repository under $GITHUB_WORKSPACE, so your job can access it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - uses: actions/checkout@v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Runs a single command using the runners shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - name: Run a one-line script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      run: bash ./.github/workflows/analyze-sonarqube.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - name: Run a multi-line1 script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      run: chmod 777 ./gradlew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Runs a set of commands using the runners shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - name: Run a multi-line2 script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      run: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ./gradlew sonarqube -Dsonar.projectKey=gradle -Dsonar.host.url=http://13.230.187.60:9000 -Dsonar.login=e2cdea8f537781f2688654733300f2827167f726 -debug</t>
+  </si>
+  <si>
+    <t>SonarQubeの全体フロー</t>
+    <rPh sb="10" eb="12">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用するソース</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1108,8 +1401,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,8 +1461,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1182,8 +1484,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1283,13 +1591,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,8 +1716,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1375,7 +1811,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1448,7 +1890,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1506,7 +1954,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1563,7 +2017,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1624,7 +2084,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="上矢印 5"/>
+        <xdr:cNvPr id="6" name="上矢印 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1678,7 +2144,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="上矢印 6"/>
+        <xdr:cNvPr id="7" name="上矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1732,7 +2204,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="左右矢印 7"/>
+        <xdr:cNvPr id="8" name="左右矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1786,7 +2264,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1876,7 +2360,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1950,7 +2440,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形吹き出し 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形吹き出し 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2056,7 +2552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="上矢印 11"/>
+        <xdr:cNvPr id="12" name="上矢印 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2110,7 +2612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形吹き出し 12"/>
+        <xdr:cNvPr id="13" name="角丸四角形吹き出し 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2216,7 +2724,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形吹き出し 13"/>
+        <xdr:cNvPr id="14" name="角丸四角形吹き出し 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2350,7 +2864,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2407,7 +2927,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2464,7 +2990,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2521,7 +3053,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2578,7 +3116,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形吹き出し 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形吹き出し 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2699,7 +3243,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2756,7 +3306,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2813,7 +3369,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2875,7 +3437,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="上矢印 22"/>
+        <xdr:cNvPr id="23" name="上矢印 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2929,7 +3497,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形吹き出し 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形吹き出し 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3035,7 +3609,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="上矢印 24"/>
+        <xdr:cNvPr id="25" name="上矢印 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3089,7 +3669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3136,6 +3722,591 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 角を丸めた四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81646CA3-1775-4FE4-A87E-C0391B08C9FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4905375" y="2819400"/>
+          <a:ext cx="1971675" cy="422148"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34505"/>
+            <a:gd name="adj2" fmla="val 113806"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が存在するか確認が必要</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3581400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6067426</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>98297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 角を丸めた四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E611D4C-6D02-424F-91EB-3033DE108969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12287250" y="6448424"/>
+          <a:ext cx="2486026" cy="317373"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54489"/>
+            <a:gd name="adj2" fmla="val 114617"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SonarQube</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Scanner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>のインストール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2257424</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>5419725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DA7008-50F0-4267-B7B0-59CC73CB0A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10963274" y="7600949"/>
+          <a:ext cx="3162301" cy="317373"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57381"/>
+            <a:gd name="adj2" fmla="val -5432"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>権限を変えないとパーミッションエラーが発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3486150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C964D688-F9FF-4CEA-8DA5-7F38D67376C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="9067799"/>
+          <a:ext cx="2924175" cy="317373"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 34185"/>
+            <a:gd name="adj2" fmla="val -140486"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SonarQube</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>に登録するプロジェクトキー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7267575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9696450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>41147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3540025-210B-4FCC-9519-114B2C2D1E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15973425" y="9058274"/>
+          <a:ext cx="2428875" cy="317373"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11058"/>
+            <a:gd name="adj2" fmla="val -143487"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SonarQube</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>で生成したトークン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4B8BF8-BCF5-437F-A80C-1423CD169E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="3143249"/>
+          <a:ext cx="1771650" cy="317373"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28721"/>
+            <a:gd name="adj2" fmla="val -94044"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バージョンが妥当かどうか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80DD3589-221C-44BE-8A5E-C5DE52118475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="3143249"/>
+          <a:ext cx="1771650" cy="317373"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58291"/>
+            <a:gd name="adj2" fmla="val -34020"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バージョンが妥当かどうか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4391025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6162675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>79247</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 角を丸めた四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FC8A36-6458-4201-A61F-5F7CC7E669D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="9096374"/>
+          <a:ext cx="1771650" cy="317373"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11058"/>
+            <a:gd name="adj2" fmla="val -143487"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SonarQube</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3151,7 +4322,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3194,7 +4371,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3254,7 +4437,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3292,7 +4481,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3352,7 +4547,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3390,7 +4591,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3450,7 +4657,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形吹き出し 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形吹き出し 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3490,10 +4703,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>簡単な結果画面</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -3535,7 +4744,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3595,7 +4810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3657,7 +4878,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3695,7 +4922,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3755,7 +4988,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3810,7 +5049,13 @@
     <xdr:ext cx="389850" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3862,7 +5107,13 @@
     <xdr:ext cx="390684" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3919,7 +5170,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3957,7 +5214,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4017,7 +5280,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4055,7 +5324,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4115,7 +5390,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4170,7 +5451,13 @@
     <xdr:ext cx="389850" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4222,7 +5509,13 @@
     <xdr:ext cx="390684" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4279,7 +5572,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4567,12 +5866,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -4582,7 +5879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4594,7 +5891,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="E1" s="16"/>
     </row>
@@ -4607,11 +5904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4620,59 +5917,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{9D7AEB1C-8899-481D-A6BD-04D255797B99}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -4686,15 +6011,15 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4702,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4714,13 +6039,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4732,13 +6057,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4750,13 +6075,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4768,13 +6093,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4786,13 +6111,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4802,49 +6127,49 @@
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8"/>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4856,13 +6181,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4874,13 +6199,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
       <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4892,13 +6217,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="8"/>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4910,13 +6235,13 @@
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8"/>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4928,19 +6253,19 @@
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="8"/>
       <c r="C43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8"/>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4952,13 +6277,13 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
       <c r="C47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4970,13 +6295,13 @@
         <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
       <c r="C50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4988,13 +6313,13 @@
         <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="8"/>
       <c r="C53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5006,25 +6331,25 @@
         <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="8"/>
       <c r="C56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="8"/>
       <c r="C57" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
       <c r="C58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5036,19 +6361,19 @@
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="8"/>
       <c r="C61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5060,25 +6385,25 @@
         <v>15</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
       <c r="C67" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5090,13 +6415,13 @@
         <v>16</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="8"/>
       <c r="C70" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5108,19 +6433,19 @@
         <v>17</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="8"/>
       <c r="C73" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="8"/>
       <c r="C74" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5130,25 +6455,25 @@
     <row r="76" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="8"/>
       <c r="C76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="8"/>
       <c r="C77" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="8"/>
       <c r="C78" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="8"/>
       <c r="C79" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5158,19 +6483,19 @@
     <row r="81" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="8"/>
       <c r="C81" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8"/>
       <c r="C82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8"/>
       <c r="C83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5180,25 +6505,25 @@
     <row r="85" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="8"/>
       <c r="C85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="8"/>
       <c r="C86" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="8"/>
       <c r="C87" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8"/>
       <c r="C88" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5210,13 +6535,13 @@
         <v>18</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="8"/>
       <c r="C91" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5226,7 +6551,7 @@
     <row r="93" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="9"/>
       <c r="C93" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +6562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -5252,15 +6577,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -5272,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -5282,7 +6607,7 @@
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8"/>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -5292,7 +6617,7 @@
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8"/>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -5302,7 +6627,7 @@
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
       <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -5322,7 +6647,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -5332,7 +6657,7 @@
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8"/>
       <c r="C10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -5342,7 +6667,7 @@
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -5352,7 +6677,7 @@
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -5372,7 +6697,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5382,7 +6707,7 @@
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10"/>
@@ -5392,7 +6717,7 @@
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -5402,7 +6727,7 @@
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
       <c r="C17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -5412,10 +6737,10 @@
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="2"/>
@@ -5423,11 +6748,11 @@
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="2"/>
@@ -5435,7 +6760,7 @@
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -5455,7 +6780,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -5465,7 +6790,7 @@
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
       <c r="C23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -5485,7 +6810,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -5494,10 +6819,10 @@
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -5507,24 +6832,24 @@
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
       <c r="C28" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="10"/>
@@ -5539,10 +6864,10 @@
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -5552,24 +6877,24 @@
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
       <c r="C31" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="8"/>
       <c r="C32" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -5586,7 +6911,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -5596,7 +6921,7 @@
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
       <c r="C35" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -5616,7 +6941,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -5626,7 +6951,7 @@
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8"/>
       <c r="C38" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -5646,7 +6971,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -5656,7 +6981,7 @@
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="8"/>
       <c r="C41" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -5708,7 +7033,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -5718,7 +7043,7 @@
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
       <c r="C47" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -5728,7 +7053,7 @@
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="8"/>
       <c r="C48" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -5738,7 +7063,7 @@
     <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="8"/>
       <c r="C49" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -5748,7 +7073,7 @@
     <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
       <c r="C50" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -5766,7 +7091,7 @@
     <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8"/>
       <c r="C52" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -5776,7 +7101,7 @@
     <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="8"/>
       <c r="C53" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -5794,7 +7119,7 @@
     <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="8"/>
       <c r="C55" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -5804,7 +7129,7 @@
     <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="8"/>
       <c r="C56" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -5814,7 +7139,7 @@
     <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="8"/>
       <c r="C57" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -5832,7 +7157,7 @@
     <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="8"/>
       <c r="C59" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -5842,10 +7167,10 @@
     <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
       <c r="C60" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -5862,7 +7187,7 @@
     <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
       <c r="C62" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -5872,7 +7197,7 @@
     <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
       <c r="C63" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -5890,7 +7215,7 @@
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
       <c r="C65" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -5900,7 +7225,7 @@
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
       <c r="C66" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -5920,7 +7245,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -5930,7 +7255,7 @@
     <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="8"/>
       <c r="C69" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -5950,7 +7275,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -5960,7 +7285,7 @@
     <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="8"/>
       <c r="C72" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -5970,7 +7295,7 @@
     <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="8"/>
       <c r="C73" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -5980,7 +7305,7 @@
     <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="8"/>
       <c r="C74" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
@@ -6000,7 +7325,7 @@
         <v>10</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
@@ -6010,7 +7335,7 @@
     <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="8"/>
       <c r="C77" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
@@ -6030,7 +7355,7 @@
         <v>11</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -6040,7 +7365,7 @@
     <row r="80" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="8"/>
       <c r="C80" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -6050,7 +7375,7 @@
     <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="8"/>
       <c r="C81" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -6060,7 +7385,7 @@
     <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="8"/>
       <c r="C82" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -6070,7 +7395,7 @@
     <row r="83" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="8"/>
       <c r="C83" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
@@ -6080,7 +7405,7 @@
     <row r="84" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="8"/>
       <c r="C84" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -6100,7 +7425,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -6110,24 +7435,24 @@
     <row r="87" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="8"/>
       <c r="C87" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="8"/>
       <c r="C88" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G88" s="2"/>
     </row>
@@ -6144,7 +7469,7 @@
         <v>13</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
@@ -6154,7 +7479,7 @@
     <row r="91" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="8"/>
       <c r="C91" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
@@ -6164,7 +7489,7 @@
     <row r="92" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="8"/>
       <c r="C92" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
@@ -6174,7 +7499,7 @@
     <row r="93" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="8"/>
       <c r="C93" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
@@ -6192,7 +7517,7 @@
     <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="9"/>
       <c r="C95" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -6207,7 +7532,739 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F93CD52-C9D2-43E8-B1EE-9E90CAE84062}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="37.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D2D05C-FE70-46B3-8918-F48C648863B1}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="150.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="26"/>
+      <c r="C5" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:17" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="Q8" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="Q9" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="2"/>
+      <c r="Q10" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="2"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="2"/>
+      <c r="Q12" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="2"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="27"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="2"/>
+      <c r="Q14" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="2"/>
+      <c r="Q15" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="2"/>
+      <c r="Q16" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="27"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="2"/>
+      <c r="Q17" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="2"/>
+      <c r="Q18" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="2"/>
+      <c r="Q19" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="27"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="2"/>
+      <c r="Q20" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="2"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="2"/>
+      <c r="Q22" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="2"/>
+      <c r="Q23" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="27"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="2"/>
+      <c r="Q24" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="2"/>
+      <c r="Q25" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="2"/>
+      <c r="Q26" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="2"/>
+      <c r="Q27" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="2"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="2"/>
+      <c r="Q29" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="2"/>
+      <c r="Q30" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="27"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="2"/>
+      <c r="Q31" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="2"/>
+      <c r="Q32" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="2"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="2"/>
+      <c r="Q34" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="2"/>
+      <c r="Q35" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="2"/>
+      <c r="Q36" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="2"/>
+      <c r="Q37" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="2"/>
+      <c r="Q38" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="2"/>
+      <c r="Q39" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="2"/>
+      <c r="Q40" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="27"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="2"/>
+      <c r="Q41" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="2"/>
+      <c r="Q42" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="2"/>
+      <c r="Q43" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="2"/>
+      <c r="Q44" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="2"/>
+      <c r="Q45" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="2"/>
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="2"/>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="2"/>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="2"/>
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="5"/>
+      <c r="Q50" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6218,83 +8275,83 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
